--- a/biology/Botanique/Rozela/Rozela.xlsx
+++ b/biology/Botanique/Rozela/Rozela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rozela est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,10 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe, Tchéquie.
-Obtenue par l'équipe de l'Institut de botanique expérimentale de Prague[1].
+Obtenue par l'équipe de l'Institut de botanique expérimentale de Prague.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Calibre: moyen à gros.
 Pelure: rouge avec de petites lenticelles.
@@ -575,7 +591,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Croisement naturel: Vanda x Bohemia
 </t>
@@ -606,9 +624,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Variété diploïde [2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Variété diploïde 
 Groupe de floraison: B-C</t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Résistance génétique aux races communes de tavelure (Vf)
 </t>
@@ -668,7 +690,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La résistance de ce cultivar aux races communes de tavelure le prédispose à une culture avec peu ou pas de fongicides, comme dans les petits jardins familiaux.
 Maturité : fin septembre
